--- a/model_exports/labels/2.0_True_False_9_3.xlsx
+++ b/model_exports/labels/2.0_True_False_9_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -622,33 +622,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,59 +661,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,20 +765,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,76 +791,76 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,50 +947,50 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,46 +1025,46 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,33 +1155,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,63 +1207,63 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,20 +1272,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,33 +1298,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,37 +1337,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,33 +1376,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,20 +1428,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,37 +1714,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,33 +1766,33 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,33 +1805,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,50 +1870,50 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,20 +1922,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,20 +1948,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,20 +1974,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,24 +2000,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,59 +2143,59 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,24 +2221,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,33 +2273,33 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,20 +2351,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,37 +2416,37 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,33 +2455,33 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,72 +2494,72 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,37 +2598,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,76 +2676,76 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,72 +2754,72 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,24 +2858,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,20 +2884,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,37 +2923,37 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3040,33 +3040,33 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,33 +3092,33 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,37 +3144,37 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,20 +3209,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,20 +3248,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,59 +3274,59 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3430,33 +3430,33 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,20 +3495,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,20 +3521,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,20 +3560,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,24 +3625,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,33 +3690,33 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,20 +3729,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,33 +3755,33 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,33 +3794,33 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,46 +3859,46 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,24 +3911,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3950,20 +3950,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,33 +3989,33 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,33 +4067,33 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,33 +4132,33 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,37 +4223,37 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,46 +4262,46 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,24 +4314,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,46 +4353,46 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,24 +4405,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,33 +4431,33 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,46 +4483,46 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,46 +4548,46 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,24 +4600,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,46 +4626,46 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,50 +4691,50 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,20 +4743,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,24 +4795,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,20 +4821,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,37 +4847,37 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,46 +4886,46 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,24 +4951,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,20 +4977,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,124 +5055,124 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,20 +5237,20 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,59 +5263,59 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,50 +5354,50 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,46 +5419,46 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,20 +5484,20 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,33 +5536,33 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,50 +5575,50 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5679,24 +5679,24 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,33 +5731,33 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,59 +5783,59 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,46 +5887,46 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,111 +5939,111 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,46 +6056,46 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,24 +6121,24 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -6186,20 +6186,20 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,37 +6238,37 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,24 +6329,24 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,33 +6368,33 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,20 +6407,20 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,59 +6563,59 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,46 +6628,46 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,50 +6680,50 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,59 +6732,59 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,20 +6797,20 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,24 +6875,24 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,20 +6901,20 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,20 +6927,20 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,33 +6953,33 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,11 +7005,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,24 +7018,24 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,180 +7044,180 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
         <v>1</v>
@@ -7226,11 +7226,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
         <v>0</v>
@@ -7239,7 +7239,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,20 +7252,20 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,20 +7304,20 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,11 +7421,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,76 +7434,76 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -7512,7 +7512,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,20 +7525,20 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,7 +7616,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,37 +7694,37 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>0</v>
@@ -7733,33 +7733,33 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,24 +7785,24 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -7837,11 +7837,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,33 +7863,33 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,37 +7902,37 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,11 +7941,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,72 +7967,72 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,63 +8071,63 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,7 +8162,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,24 +8175,24 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -8201,24 +8201,24 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,63 +8227,63 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,33 +8318,33 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,85 +8396,85 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,20 +8487,20 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,20 +8578,20 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,37 +8604,37 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,33 +8656,33 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B633" t="n">
         <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B643" t="n">
         <v>1</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,50 +8812,50 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,11 +8903,11 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
         <v>1</v>
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,11 +8994,11 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,50 +9111,50 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,11 +9163,11 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,37 +9215,37 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B676" t="n">
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,50 +9254,50 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,33 +9384,33 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,46 +9475,46 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,20 +9566,20 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,37 +9618,37 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B707" t="n">
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,85 +9683,85 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B713" t="n">
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B715" t="n">
         <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,20 +9774,20 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,20 +9800,20 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,20 +9904,20 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B729" t="n">
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9938,6 +9938,32 @@
       </c>
       <c r="C731" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-833862725059031044</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-928096679089209344</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
